--- a/imagenesSeg/si/RE/segentadasSI.xlsx
+++ b/imagenesSeg/si/RE/segentadasSI.xlsx
@@ -17,7 +17,6 @@
     <sheet name="noSé" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1246,323 +1245,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX2"/>
+  <dimension ref="A1:CU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CX1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CW1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="CX1" s="1" t="s">
-        <v>235</v>
-      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,6 +1654,15 @@
       </c>
       <c r="AH2" s="1" t="s">
         <v>274</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
